--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,14 +247,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29180417703238898</v>
+        <v>0.29229454302653429</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2842398622146487</v>
+        <v>0.28450017238065461</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0054123380362714676</v>
+        <v>-0.0054995283327372744</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0034970388477263653</v>
+        <v>-0.0035265972271654707</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00018048121367431779</v>
+        <v>7.4934938252435297e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00016170476282063997</v>
+        <v>0.00016061507060279848</v>
       </c>
       <c r="H3" s="0">
-        <v>6.434476059982762e-06</v>
+        <v>1.8793740442344287e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0010850082117441926</v>
+        <v>0.0010828896224653747</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-8.8566598041572853e-05</v>
+        <v>-8.8564091341780671e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29903561403960549</v>
+        <v>0.30022958524349547</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0087874133004150964</v>
+        <v>0.009727063473509075</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.8594665471190063e-06</v>
+        <v>1.8540754675563171e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00010696743226066031</v>
+        <v>0.00010546131912068272</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00012491131214812003</v>
+        <v>0.00012250500686866421</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0047046786588908615</v>
+        <v>0.0046966989518126357</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00041264637575170782</v>
+        <v>0.0004185608585360463</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00065727527894321458</v>
+        <v>0.00065726917752617631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26693884063307954</v>
+        <v>0.26691592669776787</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0054234463981843633</v>
+        <v>-0.0064631785505233526</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.015442001709303188</v>
+        <v>-0.015548179749478839</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0036152660100041982</v>
+        <v>-0.0036292323523578166</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0098784757029773754</v>
+        <v>-0.0099301375032851309</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0023177110876873297</v>
+        <v>0.0023149114950825091</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00044547925193870783</v>
+        <v>-0.00044758575696030408</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00058006019250811977</v>
+        <v>0.00057961651644343156</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00018987561431355049</v>
+        <v>-0.0001898726446480925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.45757093356205714</v>
+        <v>0.45752265500202316</v>
       </c>
       <c r="C6" s="0">
-        <v>0.18197735815707738</v>
+        <v>0.18194715449214008</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-7.0567297059975906e-05</v>
+        <v>-7.0563963811681122e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0013688232692868399</v>
+        <v>0.0013692911744620012</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00019630704744205929</v>
+        <v>0.00019772436278309716</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0036001506902849745</v>
+        <v>0.0036031105797005086</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0035600210619463613</v>
+        <v>0.0035600116589813435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.48655223878477283</v>
+        <v>0.48650144453546412</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00035945188440522288</v>
+        <v>-0.00036703229647181909</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0019819422207049305</v>
+        <v>0.0019823892848113978</v>
       </c>
       <c r="F7" s="0">
-        <v>0.021663093518976041</v>
+        <v>0.021667799197232235</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0030113826399351144</v>
+        <v>0.0030112896123823604</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00037197049288574112</v>
+        <v>0.00037197525543280146</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.002312368234619111</v>
+        <v>0.0023123684800540056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17692693969127943</v>
+        <v>0.17955448129482382</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.31575548293763639</v>
+        <v>-0.31307715586217544</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00012862801617577295</v>
+        <v>0.00012862961696934029</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0032572010113781219</v>
+        <v>-0.003257638592480688</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00017428635928835566</v>
+        <v>-0.00017427569785660884</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0093007026847480873</v>
+        <v>0.0093011531356291619</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0001323405138856093</v>
+        <v>0.00013232415927388885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062389662066337143</v>
+        <v>0.064761889243240778</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.042424707972714054</v>
+        <v>-0.042625697484322572</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.011609335051152558</v>
+        <v>-0.011619273735553158</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.057350717815451764</v>
+        <v>-0.057384621064259546</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0017358856560052531</v>
+        <v>-0.0017437071145851247</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0020871891570071279</v>
+        <v>-0.002088855215159089</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00089667267027253696</v>
+        <v>0.00089567210185532097</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00022611464288407879</v>
+        <v>-0.00022610953955887192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.31478560746181167</v>
+        <v>0.32437567965421232</v>
       </c>
       <c r="C10" s="0">
-        <v>0.27476246808122873</v>
+        <v>0.28212616129415813</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00049414190520742684</v>
+        <v>-0.00049417413697346675</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0036196030138207313</v>
+        <v>0.0036063567292185161</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00065241413302316576</v>
+        <v>-0.0006524288561174697</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0024346481429366388</v>
+        <v>0.002423366046867785</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.024504351982464093</v>
+        <v>-0.024625605804971067</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0027698658218169026</v>
+        <v>-0.0027698848612108251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.37831448736526102</v>
+        <v>0.38594479336689691</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.029619177393014222</v>
+        <v>0.028539630705677776</v>
       </c>
       <c r="E11" s="0">
-        <v>0.015345244204720946</v>
+        <v>0.015167618506414687</v>
       </c>
       <c r="F11" s="0">
-        <v>0.084484528566667216</v>
+        <v>0.083871626015834908</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0043598165153299279</v>
+        <v>0.0043387482114934078</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00057742048249127256</v>
+        <v>0.00054741313499070488</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.01482154511520046</v>
+        <v>-0.014860186827811647</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.056035762143573808</v>
+        <v>-0.056035736033915262</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.29154851712409502</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.067165902080818546</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00047207127863219892</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00014263474362405089</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00037952425418735233</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.007748976712229896</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.019716579217822328</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,14 +388,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29229454302653429</v>
+        <v>0.29237959587885781</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28450017238065461</v>
+        <v>0.28466586257617366</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0054995283327372744</v>
+        <v>-0.0054779229325809062</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0035265972271654707</v>
+        <v>-0.0035137739510929453</v>
       </c>
       <c r="F3" s="0">
-        <v>7.4934938252435297e-05</v>
+        <v>0.00012018237536340478</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00016061507060279848</v>
+        <v>0.00016012393282230209</v>
       </c>
       <c r="H3" s="0">
-        <v>1.8793740442344287e-06</v>
+        <v>3.8682342747632962e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0010828896224653747</v>
+        <v>0.0010823537459761778</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-8.8564091341780671e-05</v>
+        <v>-8.8564707446947555e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30022958524349547</v>
+        <v>0.30089384390707519</v>
       </c>
       <c r="C4" s="0">
-        <v>0.009727063473509075</v>
+        <v>0.010201998265842423</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.8540754675563171e-06</v>
+        <v>1.8564954651615422e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00010546131912068272</v>
+        <v>0.00010408757894203458</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00012250500686866421</v>
+        <v>0.00012091063914335413</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0046966989518126357</v>
+        <v>0.004691825876752014</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0004185608585360463</v>
+        <v>0.00045003477484759769</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00065726917752617631</v>
+        <v>0.00065726769990892553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26691592669776787</v>
+        <v>0.26764994365569322</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0064631785505233526</v>
+        <v>-0.0062487832317295175</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.015548179749478839</v>
+        <v>-0.015624984775976949</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0036292323523578166</v>
+        <v>-0.0036432587276687294</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0099301375032851309</v>
+        <v>-0.0099801770010467146</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0023149114950825091</v>
+        <v>0.0023135413336399214</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00044758575696030408</v>
+        <v>-0.00044974140347179805</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00057961651644343156</v>
+        <v>0.00057937341996219165</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0001898726446480925</v>
+        <v>-0.00018986986509039738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.45752265500202316</v>
+        <v>0.45927437401854387</v>
       </c>
       <c r="C6" s="0">
-        <v>0.18194715449214008</v>
+        <v>0.1830003361311075</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-7.0563963811681122e-05</v>
+        <v>-7.055735605772769e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0013692911744620012</v>
+        <v>0.0013620802832608186</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00019772436278309716</v>
+        <v>0.00018936940631454223</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0036031105797005086</v>
+        <v>0.0035831881489324542</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0035600116589813435</v>
+        <v>0.0035600137492931005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.48650144453546412</v>
+        <v>0.48742068796553306</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00036703229647181909</v>
+        <v>-0.00068124865772942189</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0019823892848113978</v>
+        <v>0.0018701782053733166</v>
       </c>
       <c r="F7" s="0">
-        <v>0.021667799197232235</v>
+        <v>0.021266111628510703</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0030112896123823604</v>
+        <v>0.0030073077032336556</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00037197525543280146</v>
+        <v>0.00037158671196899692</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0023123684800540056</v>
+        <v>0.0023123783556319166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17955448129482382</v>
+        <v>0.16876486607273972</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.31307715586217544</v>
+        <v>-0.32477285618381835</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00012862961696934029</v>
+        <v>0.00012867746538842306</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.003257638592480688</v>
+        <v>-0.003259042554138242</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00017427569785660884</v>
+        <v>-0.00017323742720314555</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0093011531356291619</v>
+        <v>0.0092882879952130345</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00013232415927388885</v>
+        <v>0.0001323488117649374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.064761889243240778</v>
+        <v>0.054357608123858009</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.042625697484322572</v>
+        <v>-0.042093773398414615</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.011619273735553158</v>
+        <v>-0.011658813987958179</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.057384621064259546</v>
+        <v>-0.057526581538641652</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0017437071145851247</v>
+        <v>-0.0017056924005284066</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.002088855215159089</v>
+        <v>-0.002095756074535121</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00089567210185532097</v>
+        <v>0.00089948479706173094</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00022610953955887192</v>
+        <v>-0.00022612534586546884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.32437567965421232</v>
+        <v>0.31502270932685561</v>
       </c>
       <c r="C10" s="0">
-        <v>0.28212616129415813</v>
+        <v>0.28251526696599927</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00049417413697346675</v>
+        <v>-0.00049428647820134205</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0036063567292185161</v>
+        <v>0.0036590350672597739</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0006524288561174697</v>
+        <v>-0.00065253368754271803</v>
       </c>
       <c r="I10" s="0">
-        <v>0.002423366046867785</v>
+        <v>0.0024756692066663808</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.024625605804971067</v>
+        <v>-0.024068164027753042</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0027698848612108251</v>
+        <v>-0.0027698858434307694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.38594479336689691</v>
+        <v>0.38238163560111138</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.028539630705677776</v>
+        <v>0.031089147079718375</v>
       </c>
       <c r="E11" s="0">
-        <v>0.015167618506414687</v>
+        <v>0.015860852634471526</v>
       </c>
       <c r="F11" s="0">
-        <v>0.083871626015834908</v>
+        <v>0.086273511523783514</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0043387482114934078</v>
+        <v>0.0043384629126215924</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00054741313499070488</v>
+        <v>0.0006643075073215236</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.014860186827811647</v>
+        <v>-0.014831562457713247</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.056035736033915262</v>
+        <v>-0.056035792925947514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.29154851712409502</v>
+        <v>0.22852039745020264</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.067165902080818546</v>
+        <v>-0.075545364716011448</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00047207127863219892</v>
+        <v>0.00047256209078550254</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00014263474362405089</v>
+        <v>-0.012851623148285392</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00037952425418735233</v>
+        <v>-0.0023150735115030378</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.007748976712229896</v>
+        <v>-0.044306235012150079</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.019716579217822328</v>
+        <v>-0.019315503853744254</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.29810432896714173</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.078549582991644981</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.10283435077598886</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0032063569210588018</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00010814809447444158</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0042263392134623797</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0024413655488512015</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.25228110044654611</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.21954657708685335</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.064869677650571236</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0006822663023134791</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0014468203257733633</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-9.1923355956062769e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.011332589576638609</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00013447466903565575</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29237959587885781</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.28466586257617366</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30089384390707519</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.26764994365569322</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.45927437401854387</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.48742068796553306</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.16876486607273972</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.054357608123858009</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.31502270932685561</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.38238163560111138</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.22852039745020264</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.29810432896714173</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.21954657708685335</v>
+        <v>0.21371823045604832</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.064869677650571236</v>
+        <v>-0.064429740224925661</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0006822663023134791</v>
+        <v>-0.00068416152116459691</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0014468203257733633</v>
+        <v>-0.0054127745109217402</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-9.1923355956062769e-05</v>
+        <v>-0.0052119935023073778</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.011332589576638609</v>
+        <v>-0.011330782250284704</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00013447466903565575</v>
+        <v>0.0026833534985106766</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.40816049677457861</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.40891390820617052</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.025604983494757608</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.040340413983559406</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0019342104741626573</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.14895363202030204</v>
       </c>
     </row>
   </sheetData>
